--- a/Assets/Levels/Tiles.xlsx
+++ b/Assets/Levels/Tiles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\source\repos\Space Retro Trouble\Assets\Levels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6541820-5139-48AE-AC30-57FD8AD9456B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82B25B8-E0DC-48DA-9510-A54A1C87EA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{543AD0B1-5B18-4FA5-8003-7C9D3464DA33}"/>
   </bookViews>
@@ -31,6 +31,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,16 +402,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF369A3-DCC3-4973-AC1E-EF925DA3C8EE}">
   <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A167" sqref="A167:D208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -440,7 +439,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f t="shared" ref="A3:A20" si="0">+A2+62</f>
+        <f t="shared" ref="A3:A66" si="0">+A2+62</f>
         <v>124</v>
       </c>
       <c r="B3" s="1">
@@ -710,7 +709,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" ref="A21:A84" si="1">+A20+62</f>
+        <f t="shared" si="0"/>
         <v>1240</v>
       </c>
       <c r="B21" s="1">
@@ -725,7 +724,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1302</v>
       </c>
       <c r="B22" s="1">
@@ -740,7 +739,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1364</v>
       </c>
       <c r="B23" s="1">
@@ -755,7 +754,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1426</v>
       </c>
       <c r="B24" s="1">
@@ -770,7 +769,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1488</v>
       </c>
       <c r="B25" s="1">
@@ -785,7 +784,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1550</v>
       </c>
       <c r="B26" s="1">
@@ -800,7 +799,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1612</v>
       </c>
       <c r="B27" s="1">
@@ -815,7 +814,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1674</v>
       </c>
       <c r="B28" s="1">
@@ -830,7 +829,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1736</v>
       </c>
       <c r="B29" s="1">
@@ -845,7 +844,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1798</v>
       </c>
       <c r="B30" s="1">
@@ -860,7 +859,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1860</v>
       </c>
       <c r="B31" s="1">
@@ -875,7 +874,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1922</v>
       </c>
       <c r="B32" s="1">
@@ -885,12 +884,12 @@
         <v>200</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1984</v>
       </c>
       <c r="B33" s="1">
@@ -900,12 +899,12 @@
         <v>200</v>
       </c>
       <c r="D33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2046</v>
       </c>
       <c r="B34" s="1">
@@ -920,7 +919,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2108</v>
       </c>
       <c r="B35" s="1">
@@ -935,7 +934,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2170</v>
       </c>
       <c r="B36" s="1">
@@ -950,7 +949,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2232</v>
       </c>
       <c r="B37" s="1">
@@ -965,7 +964,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2294</v>
       </c>
       <c r="B38" s="1">
@@ -980,7 +979,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2356</v>
       </c>
       <c r="B39" s="1">
@@ -995,7 +994,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2418</v>
       </c>
       <c r="B40" s="1">
@@ -1010,7 +1009,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2480</v>
       </c>
       <c r="B41" s="1">
@@ -1025,7 +1024,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2542</v>
       </c>
       <c r="B42" s="1">
@@ -1040,7 +1039,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2604</v>
       </c>
       <c r="B43" s="1">
@@ -1055,7 +1054,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2666</v>
       </c>
       <c r="B44" s="1">
@@ -1070,7 +1069,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2728</v>
       </c>
       <c r="B45" s="1">
@@ -1085,7 +1084,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2790</v>
       </c>
       <c r="B46" s="1">
@@ -1100,7 +1099,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2852</v>
       </c>
       <c r="B47" s="1">
@@ -1115,7 +1114,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2914</v>
       </c>
       <c r="B48" s="1">
@@ -1130,7 +1129,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2976</v>
       </c>
       <c r="B49" s="1">
@@ -1145,7 +1144,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3038</v>
       </c>
       <c r="B50" s="1">
@@ -1160,7 +1159,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3100</v>
       </c>
       <c r="B51" s="1">
@@ -1175,7 +1174,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3162</v>
       </c>
       <c r="B52" s="1">
@@ -1190,7 +1189,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3224</v>
       </c>
       <c r="B53" s="1">
@@ -1205,7 +1204,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3286</v>
       </c>
       <c r="B54" s="1">
@@ -1220,7 +1219,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3348</v>
       </c>
       <c r="B55" s="1">
@@ -1235,7 +1234,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3410</v>
       </c>
       <c r="B56" s="1">
@@ -1250,7 +1249,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3472</v>
       </c>
       <c r="B57" s="1">
@@ -1265,7 +1264,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3534</v>
       </c>
       <c r="B58" s="1">
@@ -1280,7 +1279,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3596</v>
       </c>
       <c r="B59" s="1">
@@ -1295,7 +1294,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3658</v>
       </c>
       <c r="B60" s="1">
@@ -1310,7 +1309,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3720</v>
       </c>
       <c r="B61" s="1">
@@ -1325,7 +1324,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3782</v>
       </c>
       <c r="B62" s="1">
@@ -1340,7 +1339,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3844</v>
       </c>
       <c r="B63" s="1">
@@ -1355,7 +1354,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3906</v>
       </c>
       <c r="B64" s="1">
@@ -1370,7 +1369,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3968</v>
       </c>
       <c r="B65" s="1">
@@ -1385,7 +1384,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4030</v>
       </c>
       <c r="B66" s="1">
@@ -1395,12 +1394,12 @@
         <v>200</v>
       </c>
       <c r="D66" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A67:A130" si="1">+A66+62</f>
         <v>4092</v>
       </c>
       <c r="B67" s="1">
@@ -1670,7 +1669,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" ref="A85:A148" si="2">+A84+62</f>
+        <f t="shared" si="1"/>
         <v>5208</v>
       </c>
       <c r="B85" s="1">
@@ -1685,7 +1684,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5270</v>
       </c>
       <c r="B86" s="1">
@@ -1700,7 +1699,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5332</v>
       </c>
       <c r="B87" s="1">
@@ -1715,7 +1714,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5394</v>
       </c>
       <c r="B88" s="1">
@@ -1730,7 +1729,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5456</v>
       </c>
       <c r="B89" s="1">
@@ -1745,7 +1744,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5518</v>
       </c>
       <c r="B90" s="1">
@@ -1760,7 +1759,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5580</v>
       </c>
       <c r="B91" s="1">
@@ -1775,7 +1774,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5642</v>
       </c>
       <c r="B92" s="1">
@@ -1790,7 +1789,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5704</v>
       </c>
       <c r="B93" s="1">
@@ -1805,7 +1804,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5766</v>
       </c>
       <c r="B94" s="1">
@@ -1820,7 +1819,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5828</v>
       </c>
       <c r="B95" s="1">
@@ -1835,7 +1834,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5890</v>
       </c>
       <c r="B96" s="1">
@@ -1850,7 +1849,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5952</v>
       </c>
       <c r="B97" s="1">
@@ -1865,7 +1864,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6014</v>
       </c>
       <c r="B98" s="1">
@@ -1875,12 +1874,12 @@
         <v>200</v>
       </c>
       <c r="D98" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6076</v>
       </c>
       <c r="B99" s="1">
@@ -1890,12 +1889,12 @@
         <v>200</v>
       </c>
       <c r="D99" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6138</v>
       </c>
       <c r="B100" s="1">
@@ -1910,7 +1909,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6200</v>
       </c>
       <c r="B101" s="1">
@@ -1925,7 +1924,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6262</v>
       </c>
       <c r="B102" s="1">
@@ -1940,7 +1939,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6324</v>
       </c>
       <c r="B103" s="1">
@@ -1955,7 +1954,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6386</v>
       </c>
       <c r="B104" s="1">
@@ -1970,7 +1969,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6448</v>
       </c>
       <c r="B105" s="1">
@@ -1985,7 +1984,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6510</v>
       </c>
       <c r="B106" s="1">
@@ -2000,7 +1999,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6572</v>
       </c>
       <c r="B107" s="1">
@@ -2015,7 +2014,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6634</v>
       </c>
       <c r="B108" s="1">
@@ -2030,7 +2029,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6696</v>
       </c>
       <c r="B109" s="1">
@@ -2045,7 +2044,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6758</v>
       </c>
       <c r="B110" s="1">
@@ -2060,7 +2059,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6820</v>
       </c>
       <c r="B111" s="1">
@@ -2075,7 +2074,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6882</v>
       </c>
       <c r="B112" s="1">
@@ -2090,7 +2089,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6944</v>
       </c>
       <c r="B113" s="1">
@@ -2105,7 +2104,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7006</v>
       </c>
       <c r="B114" s="1">
@@ -2120,7 +2119,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7068</v>
       </c>
       <c r="B115" s="1">
@@ -2135,7 +2134,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7130</v>
       </c>
       <c r="B116" s="1">
@@ -2150,7 +2149,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7192</v>
       </c>
       <c r="B117" s="1">
@@ -2165,7 +2164,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7254</v>
       </c>
       <c r="B118" s="1">
@@ -2180,7 +2179,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7316</v>
       </c>
       <c r="B119" s="1">
@@ -2195,7 +2194,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7378</v>
       </c>
       <c r="B120" s="1">
@@ -2210,7 +2209,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7440</v>
       </c>
       <c r="B121" s="1">
@@ -2225,7 +2224,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7502</v>
       </c>
       <c r="B122" s="1">
@@ -2240,7 +2239,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7564</v>
       </c>
       <c r="B123" s="1">
@@ -2255,7 +2254,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7626</v>
       </c>
       <c r="B124" s="1">
@@ -2270,7 +2269,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7688</v>
       </c>
       <c r="B125" s="1">
@@ -2285,7 +2284,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7750</v>
       </c>
       <c r="B126" s="1">
@@ -2300,7 +2299,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7812</v>
       </c>
       <c r="B127" s="1">
@@ -2315,7 +2314,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7874</v>
       </c>
       <c r="B128" s="1">
@@ -2330,7 +2329,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7936</v>
       </c>
       <c r="B129" s="1">
@@ -2345,7 +2344,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7998</v>
       </c>
       <c r="B130" s="1">
@@ -2360,7 +2359,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A131:A133" si="2">+A130+62</f>
         <v>8060</v>
       </c>
       <c r="B131" s="1">
@@ -2404,499 +2403,169 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <f t="shared" si="2"/>
-        <v>8246</v>
-      </c>
-      <c r="B134" s="1">
-        <v>62</v>
-      </c>
-      <c r="C134" s="1">
-        <v>200</v>
-      </c>
-      <c r="D134" s="2">
-        <v>4</v>
-      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <f t="shared" si="2"/>
-        <v>8308</v>
-      </c>
-      <c r="B135" s="1">
-        <v>62</v>
-      </c>
-      <c r="C135" s="1">
-        <v>200</v>
-      </c>
-      <c r="D135" s="2">
-        <v>4</v>
-      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <f t="shared" si="2"/>
-        <v>8370</v>
-      </c>
-      <c r="B136" s="1">
-        <v>62</v>
-      </c>
-      <c r="C136" s="1">
-        <v>200</v>
-      </c>
-      <c r="D136" s="2">
-        <v>4</v>
-      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <f t="shared" si="2"/>
-        <v>8432</v>
-      </c>
-      <c r="B137" s="1">
-        <v>62</v>
-      </c>
-      <c r="C137" s="1">
-        <v>200</v>
-      </c>
-      <c r="D137" s="2">
-        <v>4</v>
-      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <f t="shared" si="2"/>
-        <v>8494</v>
-      </c>
-      <c r="B138" s="1">
-        <v>62</v>
-      </c>
-      <c r="C138" s="1">
-        <v>200</v>
-      </c>
-      <c r="D138" s="2">
-        <v>4</v>
-      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <f t="shared" si="2"/>
-        <v>8556</v>
-      </c>
-      <c r="B139" s="1">
-        <v>62</v>
-      </c>
-      <c r="C139" s="1">
-        <v>200</v>
-      </c>
-      <c r="D139" s="2">
-        <v>4</v>
-      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="2"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <f t="shared" si="2"/>
-        <v>8618</v>
-      </c>
-      <c r="B140" s="1">
-        <v>62</v>
-      </c>
-      <c r="C140" s="1">
-        <v>200</v>
-      </c>
-      <c r="D140" s="2">
-        <v>4</v>
-      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="2"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <f t="shared" si="2"/>
-        <v>8680</v>
-      </c>
-      <c r="B141" s="1">
-        <v>62</v>
-      </c>
-      <c r="C141" s="1">
-        <v>200</v>
-      </c>
-      <c r="D141" s="2">
-        <v>4</v>
-      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="2"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <f t="shared" si="2"/>
-        <v>8742</v>
-      </c>
-      <c r="B142" s="1">
-        <v>62</v>
-      </c>
-      <c r="C142" s="1">
-        <v>200</v>
-      </c>
-      <c r="D142" s="2">
-        <v>4</v>
-      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="2"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <f t="shared" si="2"/>
-        <v>8804</v>
-      </c>
-      <c r="B143" s="1">
-        <v>62</v>
-      </c>
-      <c r="C143" s="1">
-        <v>200</v>
-      </c>
-      <c r="D143" s="2">
-        <v>4</v>
-      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="2"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <f t="shared" si="2"/>
-        <v>8866</v>
-      </c>
-      <c r="B144" s="1">
-        <v>62</v>
-      </c>
-      <c r="C144" s="1">
-        <v>200</v>
-      </c>
-      <c r="D144" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <f t="shared" si="2"/>
-        <v>8928</v>
-      </c>
-      <c r="B145" s="1">
-        <v>62</v>
-      </c>
-      <c r="C145" s="1">
-        <v>200</v>
-      </c>
-      <c r="D145" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <f t="shared" si="2"/>
-        <v>8990</v>
-      </c>
-      <c r="B146" s="1">
-        <v>62</v>
-      </c>
-      <c r="C146" s="1">
-        <v>200</v>
-      </c>
-      <c r="D146" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <f t="shared" si="2"/>
-        <v>9052</v>
-      </c>
-      <c r="B147" s="1">
-        <v>62</v>
-      </c>
-      <c r="C147" s="1">
-        <v>200</v>
-      </c>
-      <c r="D147" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <f t="shared" si="2"/>
-        <v>9114</v>
-      </c>
-      <c r="B148" s="1">
-        <v>62</v>
-      </c>
-      <c r="C148" s="1">
-        <v>200</v>
-      </c>
-      <c r="D148" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <f t="shared" ref="A149:A197" si="3">+A148+62</f>
-        <v>9176</v>
-      </c>
-      <c r="B149" s="1">
-        <v>62</v>
-      </c>
-      <c r="C149" s="1">
-        <v>200</v>
-      </c>
-      <c r="D149" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <f t="shared" si="3"/>
-        <v>9238</v>
-      </c>
-      <c r="B150" s="1">
-        <v>62</v>
-      </c>
-      <c r="C150" s="1">
-        <v>200</v>
-      </c>
-      <c r="D150" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <f t="shared" si="3"/>
-        <v>9300</v>
-      </c>
-      <c r="B151" s="1">
-        <v>62</v>
-      </c>
-      <c r="C151" s="1">
-        <v>200</v>
-      </c>
-      <c r="D151" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <f t="shared" si="3"/>
-        <v>9362</v>
-      </c>
-      <c r="B152" s="1">
-        <v>62</v>
-      </c>
-      <c r="C152" s="1">
-        <v>200</v>
-      </c>
-      <c r="D152" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <f t="shared" si="3"/>
-        <v>9424</v>
-      </c>
-      <c r="B153" s="1">
-        <v>62</v>
-      </c>
-      <c r="C153" s="1">
-        <v>200</v>
-      </c>
-      <c r="D153" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <f t="shared" si="3"/>
-        <v>9486</v>
-      </c>
-      <c r="B154" s="1">
-        <v>62</v>
-      </c>
-      <c r="C154" s="1">
-        <v>200</v>
-      </c>
-      <c r="D154" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <f t="shared" si="3"/>
-        <v>9548</v>
-      </c>
-      <c r="B155" s="1">
-        <v>62</v>
-      </c>
-      <c r="C155" s="1">
-        <v>200</v>
-      </c>
-      <c r="D155" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <f t="shared" si="3"/>
-        <v>9610</v>
-      </c>
-      <c r="B156" s="1">
-        <v>62</v>
-      </c>
-      <c r="C156" s="1">
-        <v>200</v>
-      </c>
-      <c r="D156" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <f t="shared" si="3"/>
-        <v>9672</v>
-      </c>
-      <c r="B157" s="1">
-        <v>62</v>
-      </c>
-      <c r="C157" s="1">
-        <v>200</v>
-      </c>
-      <c r="D157" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <f t="shared" si="3"/>
-        <v>9734</v>
-      </c>
-      <c r="B158" s="1">
-        <v>62</v>
-      </c>
-      <c r="C158" s="1">
-        <v>200</v>
-      </c>
-      <c r="D158" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <f t="shared" si="3"/>
-        <v>9796</v>
-      </c>
-      <c r="B159" s="1">
-        <v>62</v>
-      </c>
-      <c r="C159" s="1">
-        <v>200</v>
-      </c>
-      <c r="D159" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <f t="shared" si="3"/>
-        <v>9858</v>
-      </c>
-      <c r="B160" s="1">
-        <v>62</v>
-      </c>
-      <c r="C160" s="1">
-        <v>200</v>
-      </c>
-      <c r="D160" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <f t="shared" si="3"/>
-        <v>9920</v>
-      </c>
-      <c r="B161" s="1">
-        <v>62</v>
-      </c>
-      <c r="C161" s="1">
-        <v>200</v>
-      </c>
-      <c r="D161" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <f t="shared" si="3"/>
-        <v>9982</v>
-      </c>
-      <c r="B162" s="1">
-        <v>62</v>
-      </c>
-      <c r="C162" s="1">
-        <v>200</v>
-      </c>
-      <c r="D162" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <f t="shared" si="3"/>
-        <v>10044</v>
-      </c>
-      <c r="B163" s="1">
-        <v>62</v>
-      </c>
-      <c r="C163" s="1">
-        <v>200</v>
-      </c>
-      <c r="D163" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <f t="shared" si="3"/>
-        <v>10106</v>
-      </c>
-      <c r="B164" s="1">
-        <v>62</v>
-      </c>
-      <c r="C164" s="1">
-        <v>200</v>
-      </c>
-      <c r="D164" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <f t="shared" si="3"/>
-        <v>10168</v>
-      </c>
-      <c r="B165" s="1">
-        <v>62</v>
-      </c>
-      <c r="C165" s="1">
-        <v>200</v>
-      </c>
-      <c r="D165" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <f t="shared" si="3"/>
-        <v>10230</v>
-      </c>
-      <c r="B166" s="1">
-        <v>62</v>
-      </c>
-      <c r="C166" s="1">
-        <v>200</v>
-      </c>
-      <c r="D166" s="2">
-        <v>4</v>
-      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="2"/>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="2"/>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="2"/>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="2"/>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="2"/>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
